--- a/dta_cyber_be_v2-assesment/data.xlsx
+++ b/dta_cyber_be_v2-assesment/data.xlsx
@@ -375,58 +375,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Name</v>
+        <v>Title</v>
       </c>
       <c r="B1" t="str">
-        <v>Age</v>
+        <v>Id</v>
       </c>
       <c r="C1" t="str">
-        <v>Country</v>
+        <v>Updated At</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Created At</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Wronganswer</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Correctanswer</v>
+      </c>
+      <c r="G1" t="str">
+        <v xml:space="preserve">	Username</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Alice</v>
-      </c>
-      <c r="B2">
-        <v>28</v>
+        <v>Hash key</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>USA</v>
+        <v>2023-03-25 09:43</v>
+      </c>
+      <c r="D2" t="str">
+        <v>2023-03-25 09:43</v>
+      </c>
+      <c r="E2" t="str">
+        <v>5</v>
+      </c>
+      <c r="F2" t="str">
+        <v>5</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Chandran</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Bob</v>
-      </c>
-      <c r="B3">
-        <v>35</v>
+        <v>phishing attack</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2</v>
       </c>
       <c r="C3" t="str">
-        <v>Canada</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Charlie</v>
-      </c>
-      <c r="B4">
-        <v>42</v>
-      </c>
-      <c r="C4" t="str">
-        <v>UK</v>
+        <v>2023-03-25 09:43</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2023-03-25 09:43</v>
+      </c>
+      <c r="E3" t="str">
+        <v>5</v>
+      </c>
+      <c r="F3" t="str">
+        <v>6</v>
+      </c>
+      <c r="G3" t="str">
+        <v>ravichandran</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>